--- a/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
+++ b/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmavy\Documents\mydocs\Training Arc\Github\QuantMasterFund\Crypto\TacticalBetaConvexity\performance_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{093A9FAF-00E5-45D5-A63B-6E8E8F48A7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B243F0-508A-4B38-8B2E-626FEF46AD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -31,9 +31,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -514,7 +514,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -869,11 +869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C2" sqref="C2:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,258 +891,514 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45324</v>
+        <v>45293</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45325</v>
+        <v>45294</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45326</v>
+        <v>45295</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>45327</v>
+        <v>45296</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>45328</v>
+        <v>45297</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>45329</v>
+        <v>45298</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>45330</v>
+        <v>45299</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45331</v>
+        <v>45300</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45332</v>
+        <v>45301</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45333</v>
+        <v>45302</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45334</v>
+        <v>45303</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45335</v>
+        <v>45304</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45336</v>
+        <v>45305</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45337</v>
+        <v>45306</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45338</v>
+        <v>45307</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45339</v>
+        <v>45308</v>
       </c>
       <c r="B18">
-        <v>0.58330000000000004</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45340</v>
+        <v>45309</v>
       </c>
       <c r="B19">
-        <v>0.58330000000000004</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>45341</v>
+        <v>45310</v>
       </c>
       <c r="B20">
-        <v>0.58330000000000004</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>45342</v>
+        <v>45311</v>
       </c>
       <c r="B21">
-        <v>0.58330000000000004</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>45343</v>
+        <v>45312</v>
       </c>
       <c r="B22">
-        <v>0.58330000000000004</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>45344</v>
+        <v>45313</v>
       </c>
       <c r="B23">
-        <v>0.58330000000000004</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>45345</v>
+        <v>45314</v>
       </c>
       <c r="B24">
-        <v>0.58330000000000004</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>45346</v>
+        <v>45315</v>
       </c>
       <c r="B25">
-        <v>0.58330000000000004</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>45347</v>
+        <v>45316</v>
       </c>
       <c r="B26">
-        <v>0.67579999999999996</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>45348</v>
+        <v>45317</v>
       </c>
       <c r="B27">
-        <v>0.67579999999999996</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>45349</v>
+        <v>45318</v>
       </c>
       <c r="B28">
-        <v>0.67579999999999996</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>45350</v>
+        <v>45319</v>
       </c>
       <c r="B29">
-        <v>0.67579999999999996</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>45351</v>
+        <v>45320</v>
       </c>
       <c r="B30">
-        <v>0.67579999999999996</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>45352</v>
+        <v>45321</v>
       </c>
       <c r="B31">
-        <v>0.67579999999999996</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>45353</v>
+        <v>45322</v>
       </c>
       <c r="B32">
-        <v>0.67579999999999996</v>
+        <v>0.70330000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B33">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B34">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>45325</v>
+      </c>
+      <c r="B35">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>45326</v>
+      </c>
+      <c r="B36">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B37">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B38">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B39">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B40">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B41">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>45332</v>
+      </c>
+      <c r="B42">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>45333</v>
+      </c>
+      <c r="B43">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B44">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B45">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B46">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B47">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B48">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B49">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B50">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B51">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B52">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B53">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B54">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B55">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B56">
+        <v>0.70330000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>45347</v>
+      </c>
+      <c r="B57">
+        <v>0.79579999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B58">
+        <v>0.79579999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B59">
+        <v>0.79579999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B60">
+        <v>0.79579999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B61">
+        <v>0.79579999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B62">
+        <v>0.79579999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B63">
+        <v>0.79579999999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <v>45354</v>
       </c>
-      <c r="B33">
-        <v>0.67579999999999996</v>
+      <c r="B64">
+        <v>0.79579999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B65">
+        <v>0.79579999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
+++ b/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmavy\Documents\mydocs\Training Arc\Github\QuantMasterFund\Crypto\TacticalBetaConvexity\performance_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B243F0-508A-4B38-8B2E-626FEF46AD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B866A3-B98D-4C32-AC14-1BB6CE0BEB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C65"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1401,6 +1401,22 @@
         <v>0.79579999999999995</v>
       </c>
     </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B66">
+        <v>0.91579999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B67">
+        <v>0.91579999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
+++ b/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmavy\Documents\mydocs\Training Arc\Github\QuantMasterFund\Crypto\TacticalBetaConvexity\performance_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B866A3-B98D-4C32-AC14-1BB6CE0BEB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110CDF6-7D45-4181-B70B-C8FF82BCC6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="1790" windowWidth="14440" windowHeight="8200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1417,6 +1417,30 @@
         <v>0.91579999999999995</v>
       </c>
     </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B68">
+        <v>0.91579999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B69">
+        <v>0.91579999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>45360</v>
+      </c>
+      <c r="B70">
+        <v>1.0058</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
+++ b/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmavy\Documents\mydocs\Training Arc\Github\QuantMasterFund\Crypto\TacticalBetaConvexity\performance_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110CDF6-7D45-4181-B70B-C8FF82BCC6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DE6C81-B45D-4201-834C-11D1770D77DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1790" windowWidth="14440" windowHeight="8200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1441,6 +1441,70 @@
         <v>1.0058</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>45361</v>
+      </c>
+      <c r="B71">
+        <v>1.0058</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B72">
+        <v>1.0058</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B73">
+        <v>1.0058</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B74">
+        <v>1.0058</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B75">
+        <v>1.0058</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B76">
+        <v>1.0058</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B77">
+        <v>0.75151999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B78">
+        <v>0.75151999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
+++ b/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmavy\Documents\mydocs\Training Arc\Github\QuantMasterFund\Crypto\TacticalBetaConvexity\performance_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DE6C81-B45D-4201-834C-11D1770D77DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5CB1A4-6D9D-4866-89A5-3A1B479E2978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1470,7 +1470,7 @@
         <v>45364</v>
       </c>
       <c r="B74">
-        <v>1.0058</v>
+        <v>0.75151999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1478,7 +1478,7 @@
         <v>45365</v>
       </c>
       <c r="B75">
-        <v>1.0058</v>
+        <v>0.75151999999999997</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1486,7 +1486,7 @@
         <v>45366</v>
       </c>
       <c r="B76">
-        <v>1.0058</v>
+        <v>0.75151999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1503,6 +1503,15 @@
       </c>
       <c r="B78">
         <v>0.75151999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B79">
+        <f>0.75152+0.08</f>
+        <v>0.83151999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
+++ b/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmavy\Documents\mydocs\Training Arc\Github\QuantMasterFund\Crypto\TacticalBetaConvexity\performance_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5CB1A4-6D9D-4866-89A5-3A1B479E2978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB819A86-822F-4218-AEF8-43B45EDCD1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,7 +894,7 @@
         <v>45292</v>
       </c>
       <c r="B2">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -902,7 +902,7 @@
         <v>45293</v>
       </c>
       <c r="B3">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -910,7 +910,7 @@
         <v>45294</v>
       </c>
       <c r="B4">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -918,7 +918,7 @@
         <v>45295</v>
       </c>
       <c r="B5">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -926,7 +926,7 @@
         <v>45296</v>
       </c>
       <c r="B6">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>45297</v>
       </c>
       <c r="B7">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -942,7 +942,7 @@
         <v>45298</v>
       </c>
       <c r="B8">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -950,7 +950,7 @@
         <v>45299</v>
       </c>
       <c r="B9">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -958,7 +958,7 @@
         <v>45300</v>
       </c>
       <c r="B10">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -966,7 +966,7 @@
         <v>45301</v>
       </c>
       <c r="B11">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -974,7 +974,7 @@
         <v>45302</v>
       </c>
       <c r="B12">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -982,7 +982,7 @@
         <v>45303</v>
       </c>
       <c r="B13">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -990,7 +990,7 @@
         <v>45304</v>
       </c>
       <c r="B14">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -998,7 +998,7 @@
         <v>45305</v>
       </c>
       <c r="B15">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1006,7 +1006,7 @@
         <v>45306</v>
       </c>
       <c r="B16">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1014,7 +1014,7 @@
         <v>45307</v>
       </c>
       <c r="B17">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1022,7 +1022,7 @@
         <v>45308</v>
       </c>
       <c r="B18">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1030,7 +1030,7 @@
         <v>45309</v>
       </c>
       <c r="B19">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1038,7 +1038,7 @@
         <v>45310</v>
       </c>
       <c r="B20">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1046,7 +1046,7 @@
         <v>45311</v>
       </c>
       <c r="B21">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1054,7 +1054,7 @@
         <v>45312</v>
       </c>
       <c r="B22">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1062,7 +1062,7 @@
         <v>45313</v>
       </c>
       <c r="B23">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1070,7 +1070,7 @@
         <v>45314</v>
       </c>
       <c r="B24">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1078,7 +1078,7 @@
         <v>45315</v>
       </c>
       <c r="B25">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1086,7 +1086,7 @@
         <v>45316</v>
       </c>
       <c r="B26">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1094,7 +1094,7 @@
         <v>45317</v>
       </c>
       <c r="B27">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1102,7 +1102,7 @@
         <v>45318</v>
       </c>
       <c r="B28">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1110,7 +1110,7 @@
         <v>45319</v>
       </c>
       <c r="B29">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1118,7 +1118,7 @@
         <v>45320</v>
       </c>
       <c r="B30">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1126,7 +1126,7 @@
         <v>45321</v>
       </c>
       <c r="B31">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>45322</v>
       </c>
       <c r="B32">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1142,7 +1142,7 @@
         <v>45323</v>
       </c>
       <c r="B33">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1150,7 +1150,7 @@
         <v>45324</v>
       </c>
       <c r="B34">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1158,7 +1158,7 @@
         <v>45325</v>
       </c>
       <c r="B35">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1166,7 +1166,7 @@
         <v>45326</v>
       </c>
       <c r="B36">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -1174,7 +1174,7 @@
         <v>45327</v>
       </c>
       <c r="B37">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1182,7 +1182,7 @@
         <v>45328</v>
       </c>
       <c r="B38">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1190,7 +1190,7 @@
         <v>45329</v>
       </c>
       <c r="B39">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1198,7 +1198,7 @@
         <v>45330</v>
       </c>
       <c r="B40">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1206,7 +1206,7 @@
         <v>45331</v>
       </c>
       <c r="B41">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1214,7 +1214,7 @@
         <v>45332</v>
       </c>
       <c r="B42">
-        <v>0.70330000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1222,7 +1222,7 @@
         <v>45333</v>
       </c>
       <c r="B43">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1230,7 +1230,7 @@
         <v>45334</v>
       </c>
       <c r="B44">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1238,7 +1238,7 @@
         <v>45335</v>
       </c>
       <c r="B45">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -1246,7 +1246,7 @@
         <v>45336</v>
       </c>
       <c r="B46">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1254,7 +1254,7 @@
         <v>45337</v>
       </c>
       <c r="B47">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1262,7 +1262,7 @@
         <v>45338</v>
       </c>
       <c r="B48">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1270,7 +1270,7 @@
         <v>45339</v>
       </c>
       <c r="B49">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1278,7 +1278,7 @@
         <v>45340</v>
       </c>
       <c r="B50">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1286,7 +1286,7 @@
         <v>45341</v>
       </c>
       <c r="B51">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1294,7 +1294,7 @@
         <v>45342</v>
       </c>
       <c r="B52">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1302,7 +1302,7 @@
         <v>45343</v>
       </c>
       <c r="B53">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1310,7 +1310,7 @@
         <v>45344</v>
       </c>
       <c r="B54">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -1318,7 +1318,7 @@
         <v>45345</v>
       </c>
       <c r="B55">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1326,7 +1326,7 @@
         <v>45346</v>
       </c>
       <c r="B56">
-        <v>0.70330000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1334,7 +1334,7 @@
         <v>45347</v>
       </c>
       <c r="B57">
-        <v>0.79579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1342,7 +1342,7 @@
         <v>45348</v>
       </c>
       <c r="B58">
-        <v>0.79579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1350,7 +1350,7 @@
         <v>45349</v>
       </c>
       <c r="B59">
-        <v>0.79579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1358,7 +1358,7 @@
         <v>45350</v>
       </c>
       <c r="B60">
-        <v>0.79579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -1366,7 +1366,7 @@
         <v>45351</v>
       </c>
       <c r="B61">
-        <v>0.79579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1374,7 +1374,7 @@
         <v>45352</v>
       </c>
       <c r="B62">
-        <v>0.79579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1382,7 +1382,7 @@
         <v>45353</v>
       </c>
       <c r="B63">
-        <v>0.79579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1390,7 +1390,7 @@
         <v>45354</v>
       </c>
       <c r="B64">
-        <v>0.79579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1398,7 +1398,7 @@
         <v>45355</v>
       </c>
       <c r="B65">
-        <v>0.79579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1406,7 +1406,7 @@
         <v>45356</v>
       </c>
       <c r="B66">
-        <v>0.91579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1414,7 +1414,7 @@
         <v>45357</v>
       </c>
       <c r="B67">
-        <v>0.91579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1422,7 +1422,7 @@
         <v>45358</v>
       </c>
       <c r="B68">
-        <v>0.91579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1430,7 +1430,7 @@
         <v>45359</v>
       </c>
       <c r="B69">
-        <v>0.91579999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1438,7 +1438,7 @@
         <v>45360</v>
       </c>
       <c r="B70">
-        <v>1.0058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1446,7 +1446,7 @@
         <v>45361</v>
       </c>
       <c r="B71">
-        <v>1.0058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1454,7 +1454,7 @@
         <v>45362</v>
       </c>
       <c r="B72">
-        <v>1.0058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1462,7 +1462,7 @@
         <v>45363</v>
       </c>
       <c r="B73">
-        <v>1.0058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1470,7 +1470,7 @@
         <v>45364</v>
       </c>
       <c r="B74">
-        <v>0.75151999999999997</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1478,7 +1478,7 @@
         <v>45365</v>
       </c>
       <c r="B75">
-        <v>0.75151999999999997</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1486,7 +1486,7 @@
         <v>45366</v>
       </c>
       <c r="B76">
-        <v>0.75151999999999997</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1494,7 +1494,7 @@
         <v>45367</v>
       </c>
       <c r="B77">
-        <v>0.75151999999999997</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1502,7 +1502,7 @@
         <v>45368</v>
       </c>
       <c r="B78">
-        <v>0.75151999999999997</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">

--- a/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
+++ b/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmavy\Documents\mydocs\Training Arc\Github\QuantMasterFund\Crypto\TacticalBetaConvexity\performance_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB819A86-822F-4218-AEF8-43B45EDCD1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7303E4-1D1D-46B2-8D4D-DEDDD16F0B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -870,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1507,10 +1507,109 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B79">
         <f>0.75152+0.08</f>
+        <v>0.83151999999999993</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ref="B80:B90" si="0">0.75152+0.08</f>
+        <v>0.83151999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="0"/>
+        <v>0.83151999999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="0"/>
+        <v>0.83151999999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="0"/>
+        <v>0.83151999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="0"/>
+        <v>0.83151999999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="0"/>
+        <v>0.83151999999999993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="0"/>
+        <v>0.83151999999999993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="0"/>
+        <v>0.83151999999999993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="0"/>
+        <v>0.83151999999999993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="0"/>
+        <v>0.83151999999999993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="0"/>
         <v>0.83151999999999993</v>
       </c>
     </row>

--- a/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
+++ b/Crypto/TacticalBetaConvexity/performance_analytics/positions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1360,6 +1360,266 @@
         <v>0.8315199999999999</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-02</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-05</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-07</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-08</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-09</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-11</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-18</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-20</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-27</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.8315199999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
